--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Plantilla Historias Usuario.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Plantilla Historias Usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SC2PEPF00000538\EXCELCNV\e71440f0-8dec-49af-b629-3977af092f1e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{97F690AA-9630-4A15-B65B-4C2BC3B9FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C5CE14-E29E-4CC5-B058-A5B39D4B4D23}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{97F690AA-9630-4A15-B65B-4C2BC3B9FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74372F43-ABC3-4171-B973-2D262941F13C}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" activeTab="1" xr2:uid="{B344C40A-4C3E-469E-957A-BC7A6D6FC4CC}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="1" xr2:uid="{B344C40A-4C3E-469E-957A-BC7A6D6FC4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Desarrollo ágil: Historias de usuario y criterios de aceptación</t>
   </si>
@@ -150,46 +150,46 @@
     <t>Como un Docente</t>
   </si>
   <si>
-    <t>Necesito recomendar a mis estudiantes sesiones VR con ejercicios de autorregulación</t>
-  </si>
-  <si>
-    <t>Con la finalidad de acompañarlos en situaciones de estrés y mejorar su rendimiento académico</t>
-  </si>
-  <si>
-    <t>Recomendación de sesión</t>
-  </si>
-  <si>
-    <t>En caso que el docente seleccione un estudiante</t>
-  </si>
-  <si>
-    <t>cuando recomiende una sesión</t>
-  </si>
-  <si>
-    <t>el sistema notifica al estudiante con la sugerencia</t>
-  </si>
-  <si>
-    <t>Historial de sugerencias</t>
-  </si>
-  <si>
-    <t>En caso que el docente haya recomendado antes</t>
-  </si>
-  <si>
-    <t>cuando acceda a su panel</t>
-  </si>
-  <si>
-    <t>el sistema muestra lista de sesiones sugeridas</t>
-  </si>
-  <si>
-    <t>Estado de la sugerencia</t>
-  </si>
-  <si>
-    <t>En caso que el estudiante reciba la sugerencia</t>
-  </si>
-  <si>
-    <t>cuando la abra</t>
-  </si>
-  <si>
-    <t>el sistema marca la sugerencia como “vista”</t>
+    <t>ante un estudiante con desregularización emocional, necesito apoyarlo mediante un entorno virtual controlado y relajante.</t>
+  </si>
+  <si>
+    <t>con la finalidad de detener la saturación de sus sentidos y canalizar sus emociones a través de actividades interactivas, sin riesgo de dañar objetos o a sí mismo.</t>
+  </si>
+  <si>
+    <t>Aislamiento Sensorial Inmediato</t>
+  </si>
+  <si>
+    <t>Que el estudiante se encuentra en un estado de alteración y el docente le entrega las gafas VR.</t>
+  </si>
+  <si>
+    <t>La aplicación inicia y carga la escena principal.</t>
+  </si>
+  <si>
+    <t>El sistema debe desplegar automáticamente un tutorial audiovisual (Voz y Texto) que capture la atención del estudiante y le explique los controles, bloqueando estímulos externos y estableciendo el tono de calma desde el inicio.</t>
+  </si>
+  <si>
+    <t>Canalización Segura a través de Interacción</t>
+  </si>
+  <si>
+    <t>Que el estudiante ha completado la parte inicial de la aplicacion.</t>
+  </si>
+  <si>
+    <t>Interactúa con los elementos disponibles</t>
+  </si>
+  <si>
+    <t>El sistema debe responder con físicas controladas y feedback positivo (sonidos relajantes, trazos de color), permitiendo la descarga motora (lanzar/tocar/pintar) sin que existan consecuencias negativas ("Game Over" o destrucción de objetos), garantizando un entorno libre de frustración.</t>
+  </si>
+  <si>
+    <t>Validación del Estado antes de la Salida</t>
+  </si>
+  <si>
+    <t>Que el estudiante ha finalizado sus actividades e interacciones y se dirige a la salida.</t>
+  </si>
+  <si>
+    <t>Se activa el disparador (trigger) de salida o finalización.</t>
+  </si>
+  <si>
+    <t>El sistema debe impedir el cierre abrupto y presentar el segundo cuestionario de estado, obligando a una pausa reflexiva que confirma si la desregularización ha disminuido antes de que el estudiante se quite las gafas.</t>
   </si>
   <si>
     <t>CALMA-003</t>
@@ -198,46 +198,40 @@
     <t>Como un Psicólogo</t>
   </si>
   <si>
-    <t>Necesito sugerir a los estudiantes ejercicios VR personalizados</t>
-  </si>
-  <si>
-    <t>Con la finalidad de brindar apoyo individual y favorecer la regulación emocional</t>
-  </si>
-  <si>
-    <t>Ejercicio personalizado</t>
-  </si>
-  <si>
-    <t>En caso que el psicólogo seleccione un estudiante</t>
-  </si>
-  <si>
-    <t>cuando configure ejercicios específicos</t>
-  </si>
-  <si>
-    <t>el sistema guarda la recomendación en el perfil</t>
-  </si>
-  <si>
-    <t>Visualización por estudiante</t>
-  </si>
-  <si>
-    <t>En caso que el psicólogo haya sugerido ejercicios</t>
-  </si>
-  <si>
-    <t>cuando el estudiante abra la aplicación</t>
-  </si>
-  <si>
-    <t>el sistema muestra las recomendaciones personalizadas</t>
-  </si>
-  <si>
-    <t>Acceso restringido</t>
-  </si>
-  <si>
-    <t>En caso que un usuario no autorizado intente entrar</t>
-  </si>
-  <si>
-    <t>cuando no tenga credenciales válidas</t>
-  </si>
-  <si>
-    <t>el sistema bloquea acceso y muestra mensaje de error</t>
+    <t>Necesito poder analizar el estado emocional del estudiante</t>
+  </si>
+  <si>
+    <t>Con la finalidad de poder Evaluar cuantitativamente el estado emocional del usuario y conseguir maneras de ayudarle.</t>
+  </si>
+  <si>
+    <t>Evaluacion Pre-Sesión</t>
+  </si>
+  <si>
+    <t>El sistema debe presentar una forma de medir el estado emocional del usuario apenas comience la experiencia</t>
+  </si>
+  <si>
+    <t>El estudiante termina la evaluación.</t>
+  </si>
+  <si>
+    <t>se registra la medicion del estado emocional del usuario en un formato legible para el Psicologo</t>
+  </si>
+  <si>
+    <t>Evaluacion Post-Sesión</t>
+  </si>
+  <si>
+    <t>El sistema debe presentar una forma de medir el estado emocional del usuario al terminar la experiencia</t>
+  </si>
+  <si>
+    <t>Recopilación de registros de evaluaciones</t>
+  </si>
+  <si>
+    <t>Dado que el estudiante ya ha completado las evaluaciones correspondientes.</t>
+  </si>
+  <si>
+    <t>cuando los datos de las evaluaciones son almacenados</t>
+  </si>
+  <si>
+    <t>Los registros de las evaluaciones son almacenados como archivos legibles y formateados.</t>
   </si>
   <si>
     <t>Historias de usuario y criterios de aceptación: Instructivo</t>
@@ -335,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +368,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -401,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -498,11 +498,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -528,6 +556,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -537,17 +580,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB17CE1-408B-472A-A723-5151AB798979}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -864,8 +934,8 @@
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -886,18 +956,18 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="2:10" ht="44.25" customHeight="1">
       <c r="B5" s="6" t="s">
@@ -929,16 +999,16 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="60.75">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="7">
@@ -958,10 +1028,10 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="45.75">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="7">
         <v>2</v>
       </c>
@@ -979,10 +1049,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="45.75">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="7">
         <v>3</v>
       </c>
@@ -1000,10 +1070,10 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="37.5" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="7">
         <v>4</v>
       </c>
@@ -1028,20 +1098,20 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="2:10" ht="50.25" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="2:10" ht="106.5">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="18" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="7">
@@ -1050,21 +1120,21 @@
       <c r="G11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="30.75">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+    <row r="12" spans="2:10" ht="125.25" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="7">
         <v>2</v>
       </c>
@@ -1074,114 +1144,114 @@
       <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="54.75" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+    <row r="13" spans="2:10" ht="99" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:10" ht="52.5" customHeight="1">
-      <c r="B15" s="13" t="s">
+      <c r="I14" s="8"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="2:10" ht="67.5" customHeight="1">
+      <c r="B15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="45.75">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>60</v>
+      <c r="I16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="61.5" customHeight="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="7">
         <v>3</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="J17" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1203,12 +1273,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -1217,6 +1281,12 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -1227,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938FDEF0-030E-4D29-9A43-93E013268CE7}">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1312,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="31.5">
       <c r="B1" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21">
@@ -1252,10 +1322,10 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30">
@@ -1263,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="135">
@@ -1271,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="105">
@@ -1279,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="45">
@@ -1287,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1295,15 +1365,15 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="45">
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -1311,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -1319,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="30">
@@ -1327,7 +1397,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1432,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="36">
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="21">
@@ -1371,18 +1441,18 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="2:10" ht="45">
       <c r="B5" s="6" t="s">
@@ -1414,81 +1484,81 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="60">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="7" spans="2:10" ht="75">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="7">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="8" spans="2:10" ht="45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="7">
         <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="7"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
